--- a/dataset/region/sexo_edad_araucania.xlsx
+++ b/dataset/region/sexo_edad_araucania.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfurn\Desktop\proyectovdd\errores\dashboard_seguridad\dataset\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6B0E15-0765-4327-8C28-32C2604A0019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4238FD-9B88-4CE7-8CAB-BF243355411E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85C7646E-777D-4563-A1AC-E3682F791C54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{85C7646E-777D-4563-A1AC-E3682F791C54}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -181,22 +181,22 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,78 +515,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6300CE19-EDB5-4E62-A5D6-57B1471C01CD}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="U49" sqref="A1:U49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>2005</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
         <v>2006</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>2007</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="2">
         <v>2008</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="2">
         <v>2009</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="2">
         <v>2010</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="2">
         <v>2011</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="2">
         <v>2012</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="2">
         <v>2013</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="2">
         <v>2014</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="2">
         <v>2015</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="2">
         <v>2016</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="2">
         <v>2017</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="2">
         <v>2018</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="2">
         <v>2019</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="2">
         <v>2020</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="2">
         <v>2021</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -651,7 +651,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -716,7 +716,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -781,7 +781,7 @@
         <v>5191</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,7 +846,7 @@
         <v>7724</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -911,7 +911,7 @@
         <v>6017</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -976,7 +976,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>22110</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>7348</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>7084</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>22291</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>9737</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>15072</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>13101</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>44401</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>5290</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>6255</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>7967</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>4818</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>20740</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>15</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>15</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>15</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>7960</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>9860</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>5966</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>15</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>15</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
